--- a/userDetails.xlsx
+++ b/userDetails.xlsx
@@ -27,12 +27,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Crazypriyalovely07</t>
-  </si>
-  <si>
-    <t>Bot@12345</t>
-  </si>
-  <si>
     <t>sendMessage</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>Hello! Thanks for following me on Instagram.</t>
+  </si>
+  <si>
+    <t>Mike@2023</t>
+  </si>
+  <si>
+    <t>pytourist</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -395,20 +395,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>

--- a/userDetails.xlsx
+++ b/userDetails.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="count" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +41,15 @@
   </si>
   <si>
     <t>pytourist</t>
+  </si>
+  <si>
+    <t>executeStartTime</t>
+  </si>
+  <si>
+    <t>currentCount</t>
+  </si>
+  <si>
+    <t>maximumLimit</t>
   </si>
 </sst>
 </file>
@@ -368,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +389,7 @@
     <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="66.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,4 +429,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>45218.607485416665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>